--- a/data/trans_orig/P04C04_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>514097</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>497532</v>
+        <v>498309</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>527338</v>
+        <v>528666</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8942307256319811</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8654167326938945</v>
+        <v>0.8667695993261767</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9172619553018746</v>
+        <v>0.9195723426927301</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1262</v>
@@ -762,19 +762,19 @@
         <v>723254</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>707891</v>
+        <v>708863</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>737604</v>
+        <v>737821</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8832695069497646</v>
+        <v>0.8832695069497645</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8645073496088453</v>
+        <v>0.8656944911218279</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9007948015755467</v>
+        <v>0.9010599203283063</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1885</v>
@@ -783,19 +783,19 @@
         <v>1237351</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1216523</v>
+        <v>1214618</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1256932</v>
+        <v>1256652</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8877908949619644</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8728469136806883</v>
+        <v>0.8714801792776905</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9018407919222222</v>
+        <v>0.9016393466620602</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>14816</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8505</v>
+        <v>8314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24902</v>
+        <v>24883</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02577208695246995</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01479375952355235</v>
+        <v>0.01446080370061801</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04331515012579214</v>
+        <v>0.04328168708865842</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -833,19 +833,19 @@
         <v>12500</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7713</v>
+        <v>7508</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20361</v>
+        <v>20023</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01526542036490271</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.009418974960778596</v>
+        <v>0.009169549343982177</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0248654669336415</v>
+        <v>0.02445265250052161</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -854,19 +854,19 @@
         <v>27316</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18818</v>
+        <v>19347</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37869</v>
+        <v>40709</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01959931039432779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01350164018149395</v>
+        <v>0.0138813233387621</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02717071903163966</v>
+        <v>0.02920840483138301</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>45991</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34250</v>
+        <v>33331</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>60673</v>
+        <v>61203</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07999718741554897</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05957570749586563</v>
+        <v>0.0579758672147427</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1055363303576622</v>
+        <v>0.1064571471355384</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>142</v>
@@ -904,19 +904,19 @@
         <v>83083</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>69538</v>
+        <v>69750</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>97663</v>
+        <v>97004</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1014650726853328</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08492249919440321</v>
+        <v>0.08518190743986344</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1192700381045531</v>
+        <v>0.1184661731613039</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>192</v>
@@ -925,19 +925,19 @@
         <v>129074</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>111519</v>
+        <v>111422</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>148485</v>
+        <v>150172</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09260979464370794</v>
+        <v>0.09260979464370793</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08001449703863646</v>
+        <v>0.07994465829697577</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1065367429904388</v>
+        <v>0.1077472909554114</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>1896051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1851784</v>
+        <v>1852266</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1935911</v>
+        <v>1936764</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.851520575316126</v>
+        <v>0.8515205753161261</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8316403555902672</v>
+        <v>0.8318564276561092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8694218751798929</v>
+        <v>0.8698047368543836</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2436</v>
@@ -1050,19 +1050,19 @@
         <v>1852102</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1820367</v>
+        <v>1818860</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1880728</v>
+        <v>1881863</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.854580679034099</v>
+        <v>0.8545806790340991</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8399380464219409</v>
+        <v>0.8392425408224562</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8677888920916726</v>
+        <v>0.8683128328149453</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4129</v>
@@ -1071,19 +1071,19 @@
         <v>3748153</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3697162</v>
+        <v>3695789</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3796166</v>
+        <v>3800517</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8530299427182914</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8414250863225562</v>
+        <v>0.8411126292249282</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8639570714224177</v>
+        <v>0.8649472576772766</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>24131</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14536</v>
+        <v>14712</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40919</v>
+        <v>39047</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01083731734514265</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006528197601956958</v>
+        <v>0.006607156400952548</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01837680924585815</v>
+        <v>0.01753623406035988</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -1121,19 +1121,19 @@
         <v>19973</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12565</v>
+        <v>12338</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>33070</v>
+        <v>33222</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.0092158536892734</v>
+        <v>0.009215853689273402</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005797702762537028</v>
+        <v>0.005692680287120753</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01525890154663737</v>
+        <v>0.01532881540979796</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>43</v>
@@ -1142,19 +1142,19 @@
         <v>44104</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>32113</v>
+        <v>32060</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>63023</v>
+        <v>62948</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01003754563427196</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.007308528023550404</v>
+        <v>0.007296486507431615</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01434330451774744</v>
+        <v>0.01432602989096855</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>306483</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>269185</v>
+        <v>266407</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>351055</v>
+        <v>348704</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1376421073387314</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1208916275075082</v>
+        <v>0.119644088177907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1576593905177967</v>
+        <v>0.156603612645715</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>456</v>
@@ -1192,19 +1192,19 @@
         <v>295189</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>268628</v>
+        <v>266201</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>326499</v>
+        <v>325970</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1362034672766276</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1239481020040761</v>
+        <v>0.1228282221829841</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1506501128387546</v>
+        <v>0.150406368011127</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>732</v>
@@ -1213,19 +1213,19 @@
         <v>601672</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>556521</v>
+        <v>549774</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>652180</v>
+        <v>650004</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1369325116474366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1266567520704326</v>
+        <v>0.1251212486395915</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1484276096027814</v>
+        <v>0.1479322694516473</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>572778</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>551797</v>
+        <v>547027</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>594270</v>
+        <v>593231</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8066710609522935</v>
+        <v>0.8066710609522937</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7771212549288745</v>
+        <v>0.7704037494262227</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.836938294123007</v>
+        <v>0.8354756404654891</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>778</v>
@@ -1338,19 +1338,19 @@
         <v>589664</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>569071</v>
+        <v>571942</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>607313</v>
+        <v>607940</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8068717986745407</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7786922588045897</v>
+        <v>0.782621274013209</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.831020893276426</v>
+        <v>0.8318797415940734</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1313</v>
@@ -1359,19 +1359,19 @@
         <v>1162443</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1131544</v>
+        <v>1134672</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1189560</v>
+        <v>1190196</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8067728753207672</v>
+        <v>0.8067728753207675</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7853279040535779</v>
+        <v>0.7874989356495325</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.825593387369794</v>
+        <v>0.8260347175180471</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>8986</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3945</v>
+        <v>3958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19798</v>
+        <v>20634</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01265550447574683</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005555387072908928</v>
+        <v>0.005574223204682249</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02788293216911297</v>
+        <v>0.02905916842672068</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1409,19 +1409,19 @@
         <v>9617</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5304</v>
+        <v>5089</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16031</v>
+        <v>15659</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01316017050703693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007258440248537733</v>
+        <v>0.006963677202721155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0219356295801006</v>
+        <v>0.02142702368278911</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1430,19 +1430,19 @@
         <v>18604</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11683</v>
+        <v>11390</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30335</v>
+        <v>29266</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01291147157894367</v>
+        <v>0.01291147157894368</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008108204024892344</v>
+        <v>0.007904849252715453</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02105335926300497</v>
+        <v>0.02031148055206277</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>128288</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108384</v>
+        <v>108431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149532</v>
+        <v>152679</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1806734345719597</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1526428484898397</v>
+        <v>0.1527090278501707</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2105926032315686</v>
+        <v>0.2150245004838503</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>208</v>
@@ -1480,19 +1480,19 @@
         <v>131521</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>114269</v>
+        <v>113922</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>151487</v>
+        <v>149239</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1799680308184222</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1563611155839676</v>
+        <v>0.1558867407820995</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2072883701864452</v>
+        <v>0.2042118297249778</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>345</v>
@@ -1501,19 +1501,19 @@
         <v>259809</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>233280</v>
+        <v>233478</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>289391</v>
+        <v>287928</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.180315653100289</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1619035646629197</v>
+        <v>0.1620414153648389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2008464531779792</v>
+        <v>0.1998314530350471</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>2982926</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2932857</v>
+        <v>2932582</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3029509</v>
+        <v>3027754</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8494442485489812</v>
+        <v>0.849444248548981</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.835185965356958</v>
+        <v>0.8351078000273133</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8627095963908655</v>
+        <v>0.8622097633853683</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4476</v>
@@ -1626,19 +1626,19 @@
         <v>3165021</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3126178</v>
+        <v>3128989</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3204330</v>
+        <v>3204257</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8515205211243272</v>
+        <v>0.8515205211243274</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8410700574514652</v>
+        <v>0.8418263951506102</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8620963054331952</v>
+        <v>0.8620766912766548</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7327</v>
@@ -1647,19 +1647,19 @@
         <v>6147947</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6086089</v>
+        <v>6081552</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6204897</v>
+        <v>6206550</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8505118670781068</v>
+        <v>0.8505118670781069</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8419543595132559</v>
+        <v>0.8413267587055361</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8583903136918215</v>
+        <v>0.8586190270393068</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>47934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34617</v>
+        <v>34832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65954</v>
+        <v>65304</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01364999603365042</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009857762528459896</v>
+        <v>0.009919126335304153</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01878153222914353</v>
+        <v>0.01859658640713762</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -1697,19 +1697,19 @@
         <v>42091</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31564</v>
+        <v>31638</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57188</v>
+        <v>56952</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01132409462646992</v>
+        <v>0.01132409462646993</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008492129711792775</v>
+        <v>0.008511821409085258</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01538583655577512</v>
+        <v>0.01532251500429474</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>96</v>
@@ -1718,19 +1718,19 @@
         <v>90024</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>72966</v>
+        <v>73380</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>113903</v>
+        <v>111926</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01245401845887976</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01009424316113932</v>
+        <v>0.01015145176378579</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01575741490131942</v>
+        <v>0.01548388349005409</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>480761</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>432731</v>
+        <v>438481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>529151</v>
+        <v>529608</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1369057554173684</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1232283660603731</v>
+        <v>0.1248657095366276</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1506855644468888</v>
+        <v>0.1508159490371104</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>806</v>
@@ -1768,19 +1768,19 @@
         <v>509794</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>474178</v>
+        <v>473155</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>547610</v>
+        <v>547633</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1371553842492028</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1275734493759185</v>
+        <v>0.127297994718402</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1473296134851079</v>
+        <v>0.1473356433877714</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1269</v>
@@ -1789,19 +1789,19 @@
         <v>990555</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>934847</v>
+        <v>934552</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1049819</v>
+        <v>1051229</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1370341144630134</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1293274269501333</v>
+        <v>0.1292866909186056</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1452327645016682</v>
+        <v>0.1454278749157044</v>
       </c>
     </row>
     <row r="19">
